--- a/Examples/MCA draft for GA presentation.xlsx
+++ b/Examples/MCA draft for GA presentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t xml:space="preserve">Resilience </t>
   </si>
@@ -400,6 +400,75 @@
   </si>
   <si>
     <t>Back pack internal</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>+ options</t>
+  </si>
+  <si>
+    <t>+ criteria</t>
+  </si>
+  <si>
+    <t>Optie 1</t>
+  </si>
+  <si>
+    <t>Optie 2</t>
+  </si>
+  <si>
+    <t>Optie 3</t>
+  </si>
+  <si>
+    <t>Optie 4</t>
+  </si>
+  <si>
+    <t>PIE CHART</t>
+  </si>
+  <si>
+    <t>Hoek == weight</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>value tussen 0 en 1, desription</t>
+  </si>
+  <si>
+    <t>Source (list of models)</t>
+  </si>
+  <si>
+    <t>Welke criteria zijn van toepassing</t>
   </si>
 </sst>
 </file>
@@ -487,7 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
@@ -506,6 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -810,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G49"/>
+  <dimension ref="A2:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +895,15 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.2</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -837,7 +915,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.4</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -852,7 +933,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -862,7 +946,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.8</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,7 +959,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.5</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
@@ -882,7 +972,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.2</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -892,7 +985,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -902,7 +998,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.3</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -913,7 +1012,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -923,7 +1022,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
@@ -933,7 +1032,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
@@ -943,7 +1042,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
@@ -953,7 +1052,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.3</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -964,7 +1066,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
@@ -972,7 +1074,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
@@ -980,7 +1082,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
@@ -988,7 +1090,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>60</v>
       </c>
@@ -996,7 +1098,10 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.4</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1113,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1122,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1130,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1138,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1041,7 +1146,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1154,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
         <v>36</v>
       </c>
@@ -1057,7 +1162,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1066,13 +1171,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
         <v>38</v>
       </c>
@@ -1080,7 +1185,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="6" t="s">
         <v>39</v>
       </c>
@@ -1088,7 +1193,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="6" t="s">
         <v>40</v>
       </c>
@@ -1096,7 +1201,10 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0.2</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1216,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1117,7 +1225,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
         <v>44</v>
       </c>
@@ -1125,7 +1233,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" s="6" t="s">
         <v>45</v>
       </c>
@@ -1133,7 +1241,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" s="6" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1249,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
@@ -1150,7 +1258,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="6" t="s">
         <v>47</v>
       </c>
@@ -1158,7 +1266,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
         <v>48</v>
       </c>
@@ -1166,7 +1274,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" s="6" t="s">
         <v>49</v>
       </c>
@@ -1174,7 +1282,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
         <v>50</v>
       </c>
@@ -1182,7 +1290,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0.1</v>
+      </c>
       <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
@@ -1194,7 +1305,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>52</v>
       </c>
@@ -1203,7 +1314,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44" s="6" t="s">
         <v>53</v>
       </c>
@@ -1211,7 +1322,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0.05</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>54</v>
       </c>
@@ -1223,7 +1337,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
@@ -1232,13 +1346,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>57</v>
       </c>
@@ -1247,7 +1361,10 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>0.05</v>
+      </c>
       <c r="B49" s="5" t="s">
         <v>56</v>
       </c>
@@ -1267,689 +1384,898 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:U146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2805" activePane="bottomLeft"/>
-      <selection activeCell="P3" sqref="P3"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="10" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="G2" s="8" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>0.8</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>0.6</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>0.3</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>0.75</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>0.4</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="P5">
+      <c r="U5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <f>C6/$C$25</f>
-        <v>0.61728395061728392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G6/$G$31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="C7">
+      <c r="G10">
         <v>0.01</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" ref="D7:D23" si="0">C7/$C$25</f>
-        <v>6.1728395061728392E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="H10" s="9">
+        <f t="shared" ref="H10:H29" si="0">G10/$G$31</f>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="C8">
+      <c r="G11">
         <v>0.2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12345679012345678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+        <v>0.32258064516129037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="C9">
+      <c r="G12">
         <v>0.05</v>
       </c>
-      <c r="D9" s="9">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>3.0864197530864196E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+        <v>8.0645161290322592E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="9">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="9">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.2</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="C12">
+      <c r="G15">
         <v>0.05</v>
       </c>
-      <c r="D12" s="9">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>3.0864197530864196E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+        <v>8.0645161290322592E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="9">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9">
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="9">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="9">
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="9">
+      <c r="H20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="9">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.3</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="9">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="C20">
+      <c r="G23">
         <v>0.05</v>
       </c>
-      <c r="D20" s="9">
+      <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>3.0864197530864196E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+        <v>8.0645161290322592E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="C21">
+      <c r="G27">
         <v>0.05</v>
       </c>
-      <c r="D21" s="9">
+      <c r="H27" s="9">
         <f t="shared" si="0"/>
-        <v>3.0864197530864196E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+        <v>8.0645161290322592E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C22">
+      <c r="G28">
         <v>0.2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
-        <v>0.12345679012345678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+        <v>0.32258064516129037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="C23">
+      <c r="G29">
         <v>0.01</v>
       </c>
-      <c r="D23" s="9">
+      <c r="H29" s="9">
         <f t="shared" si="0"/>
-        <v>6.1728395061728392E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <f>SUM(C6:C24)</f>
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f>SUM(G6:G30)</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>96</v>
       </c>
-      <c r="C29">
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="D29">
-        <f>C29/$C$32</f>
+      <c r="H35">
+        <f>G35/$G$38</f>
         <v>0.82644628099173556</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="C30">
+      <c r="G36">
         <v>0.2</v>
       </c>
-      <c r="D30">
-        <f t="shared" ref="D30:D31" si="1">C30/$C$32</f>
+      <c r="H36">
+        <f t="shared" ref="H36:H37" si="1">G36/$G$38</f>
         <v>0.16528925619834711</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>98</v>
       </c>
-      <c r="C31">
+      <c r="G37">
         <v>0.01</v>
       </c>
-      <c r="D31">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f>SUM(C29:C31)</f>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f>SUM(G35:G37)</f>
         <v>1.21</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>100</v>
       </c>
-      <c r="C34">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="D34">
-        <f>C34/$C$37</f>
+      <c r="H40">
+        <f>G40/$G$43</f>
         <v>0.82644628099173556</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>101</v>
       </c>
-      <c r="C35">
+      <c r="G41">
         <v>0.2</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35:D36" si="2">C35/$C$37</f>
+      <c r="H41">
+        <f t="shared" ref="H41:H42" si="2">G41/$G$43</f>
         <v>0.16528925619834711</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>102</v>
       </c>
-      <c r="C36">
+      <c r="G42">
         <v>0.01</v>
       </c>
-      <c r="D36">
+      <c r="H42">
         <f t="shared" si="2"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <f>SUM(C34:C36)</f>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f>SUM(G40:G42)</f>
         <v>1.21</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>103</v>
       </c>
-      <c r="C40">
+      <c r="G46">
         <v>1</v>
       </c>
-      <c r="D40">
-        <f>C40/$C$37</f>
+      <c r="H46">
+        <f>G46/$G$43</f>
         <v>0.82644628099173556</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>104</v>
       </c>
-      <c r="C41">
+      <c r="G47">
         <v>0.2</v>
       </c>
-      <c r="D41">
-        <f t="shared" ref="D41:D42" si="3">C41/$C$37</f>
+      <c r="H47">
+        <f t="shared" ref="H47:H48" si="3">G47/$G$43</f>
         <v>0.16528925619834711</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="C42">
+      <c r="G48">
         <v>0.01</v>
       </c>
-      <c r="D42">
+      <c r="H48">
         <f t="shared" si="3"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <f>SUM(C40:C42)</f>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f>SUM(G46:G48)</f>
         <v>1.21</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>84</v>
       </c>
-      <c r="C53">
+      <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>85</v>
       </c>
-      <c r="C54">
+      <c r="G60">
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>89</v>
       </c>
-      <c r="C55">
+      <c r="G61">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>87</v>
       </c>
-      <c r="C56">
+      <c r="G62">
         <v>0.02</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>112</v>
       </c>
-      <c r="C57">
+      <c r="G63">
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <f>SUM(C53:C57)</f>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f>SUM(G59:G63)</f>
         <v>1.6300000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>113</v>
       </c>
-      <c r="C63">
+      <c r="G69">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>114</v>
       </c>
-      <c r="C64">
+      <c r="G70">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>115</v>
       </c>
-      <c r="C65">
+      <c r="G71">
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>124</v>
       </c>
-      <c r="C77">
+      <c r="G83">
         <v>0.3</v>
       </c>
-      <c r="I77">
+      <c r="M83">
         <v>0.2</v>
       </c>
-      <c r="J77">
+      <c r="N83">
         <v>0.7</v>
       </c>
-      <c r="K77">
+      <c r="O83">
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>125</v>
       </c>
-      <c r="C78">
+      <c r="G84">
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>126</v>
       </c>
-      <c r="C79">
+      <c r="G85">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>127</v>
       </c>
-      <c r="C80">
+      <c r="G86">
         <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N146" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Examples/MCA draft for GA presentation.xlsx
+++ b/Examples/MCA draft for GA presentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
   <si>
     <t xml:space="preserve">Resilience </t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>Welke criteria zijn van toepassing</t>
+  </si>
+  <si>
+    <t>SELECT SOURCE (ALL, Evacuation Model, etc)</t>
+  </si>
+  <si>
+    <t>SPECIFY SOLUTION (select or create new, edit, delete)</t>
   </si>
 </sst>
 </file>
@@ -883,7 +889,7 @@
   <dimension ref="A2:G49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C43"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +959,7 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3"/>
@@ -966,7 +972,7 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3"/>
@@ -979,7 +985,7 @@
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
@@ -992,7 +998,7 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
@@ -1013,7 +1019,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1043,7 +1049,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1384,12 +1390,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U146"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2805" activePane="bottomLeft"/>
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,6 +1434,9 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
       <c r="K2" s="8" t="s">
         <v>63</v>
       </c>
@@ -1463,101 +1472,108 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
         <v>129</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>0.8</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>0.6</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>0.3</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>0.75</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>0.4</v>
       </c>
-      <c r="T3">
+      <c r="T4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>73</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>0.5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="U5">
+      <c r="U6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>0.2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>150</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="9">
-        <f>G6/$G$31</f>
+      <c r="H7" s="9">
+        <f>G7/$G$32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1566,58 +1582,58 @@
         <v>0.4</v>
       </c>
       <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H29" si="0">G10/$G$31</f>
-        <v>1.6129032258064516E-2</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" ref="H11:H30" si="0">G11/$G$32</f>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>0.32258064516129037</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>0.05</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>8.0645161290322592E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
@@ -1625,32 +1641,32 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15">
-        <v>0.05</v>
+      <c r="C15" t="s">
+        <v>83</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>8.0645161290322592E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>84</v>
+      <c r="A16">
+        <v>0.2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0645161290322592E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
@@ -1659,7 +1675,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
@@ -1668,7 +1684,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
@@ -1677,7 +1693,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
@@ -1686,7 +1702,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
@@ -1694,11 +1710,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
+      <c r="C22" t="s">
+        <v>90</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="0"/>
@@ -1706,426 +1719,438 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23">
-        <v>0.05</v>
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
         <v>8.0645161290322592E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>0.05</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>8.0645161290322592E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>0.2</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <f t="shared" si="0"/>
         <v>0.32258064516129037</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>0.01</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>1.6129032258064516E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>SUM(G6:G30)</f>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>SUM(G7:G31)</f>
         <v>0.62</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <f>G35/$G$38</f>
-        <v>0.82644628099173556</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="1">G36/$G$38</f>
-        <v>0.16528925619834711</v>
+        <f>G36/$G$39</f>
+        <v>0.82644628099173556</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H38" si="1">G37/$G$39</f>
+        <v>0.16528925619834711</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>98</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>0.01</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G38">
-        <f>SUM(G35:G37)</f>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f>SUM(G36:G38)</f>
         <v>1.21</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <f>G40/$G$43</f>
-        <v>0.82644628099173556</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H42" si="2">G41/$G$43</f>
-        <v>0.16528925619834711</v>
+        <f>G41/$G$44</f>
+        <v>0.82644628099173556</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42">
+        <v>0.2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H43" si="2">G42/$G$44</f>
+        <v>0.16528925619834711</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>102</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>0.01</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <f t="shared" si="2"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G43">
-        <f>SUM(G40:G42)</f>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f>SUM(G41:G43)</f>
         <v>1.21</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <f>G46/$G$43</f>
-        <v>0.82644628099173556</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H48" si="3">G47/$G$43</f>
-        <v>0.16528925619834711</v>
+        <f>G47/$G$44</f>
+        <v>0.82644628099173556</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48">
+        <v>0.2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H49" si="3">G48/$G$44</f>
+        <v>0.16528925619834711</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>0.01</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f t="shared" si="3"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G49">
-        <f>SUM(G46:G48)</f>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f>SUM(G47:G49)</f>
         <v>1.21</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>84</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>85</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>89</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>87</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>112</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G64">
-        <f>SUM(G59:G63)</f>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f>SUM(G60:G64)</f>
         <v>1.6300000000000001</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69">
-        <v>0.01</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>115</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="83" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>124</v>
-      </c>
-      <c r="G83">
-        <v>0.3</v>
-      </c>
-      <c r="M83">
-        <v>0.2</v>
-      </c>
-      <c r="N83">
-        <v>0.7</v>
-      </c>
-      <c r="O83">
-        <v>0.1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G84">
         <v>0.3</v>
       </c>
+      <c r="M84">
+        <v>0.2</v>
+      </c>
+      <c r="N84">
+        <v>0.7</v>
+      </c>
+      <c r="O84">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>127</v>
       </c>
-      <c r="G86">
+      <c r="G87">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N144" t="s">
+    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M145" t="s">
+    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N146" t="s">
+    <row r="147" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2144,7 +2169,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
